--- a/Design Docs/Beat Chart v02.xlsx
+++ b/Design Docs/Beat Chart v02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive - Nova Scotia Community College\_Semester 02\Portfolio Development\Design Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2DA152-1E47-44A2-8394-3657A166F302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9EFAC7-9A07-44FA-8EBB-91B082382FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A7DBA33E-833C-416C-8382-D3045C7436B5}"/>
   </bookViews>
@@ -325,6 +325,30 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,30 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,7 +675,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,17 +695,17 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -734,7 +734,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
@@ -749,7 +749,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -788,10 +788,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -803,70 +803,64 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
@@ -874,12 +868,33 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABAB194D5EA99048AD3A13FAD98B2126" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2cebdb3644991812800a87744ca1178">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="213ccd01-2797-43b0-9b6c-cdde795fafff" xmlns:ns4="0e0e46dd-8fe2-4bdf-8e33-3e20f7420fd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc305db3c6134142247c51e1fdefc726" ns3:_="" ns4:_="">
     <xsd:import namespace="213ccd01-2797-43b0-9b6c-cdde795fafff"/>
@@ -1102,36 +1117,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E10F19-EA6D-4883-B605-FD36D44C21DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E4B0CA-0462-4152-8A61-A7F9138DDF5A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="213ccd01-2797-43b0-9b6c-cdde795fafff"/>
-    <ds:schemaRef ds:uri="0e0e46dd-8fe2-4bdf-8e33-3e20f7420fd4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1154,9 +1143,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E4B0CA-0462-4152-8A61-A7F9138DDF5A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E10F19-EA6D-4883-B605-FD36D44C21DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="213ccd01-2797-43b0-9b6c-cdde795fafff"/>
+    <ds:schemaRef ds:uri="0e0e46dd-8fe2-4bdf-8e33-3e20f7420fd4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>